--- a/Assignment 5/A5Q4.xlsx
+++ b/Assignment 5/A5Q4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livecsupomona-my.sharepoint.com/personal/hleos_cpp_edu/Documents/2022 Fall/CS 4210 Machine Learning and its App/Assignment 5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\CS4210-Machine-Learning\Assignment 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="148" documentId="8_{22FEAC30-4E36-4D56-A9DF-3BB642B32DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E605AA1E-D0E5-4467-BCA5-20F3C2F5C11F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65CA7ED-6ED1-419F-B341-6A190486BB72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{D8F632F1-6A5A-43E3-A743-588D7EAA5943}"/>
+    <workbookView xWindow="-38510" yWindow="-2980" windowWidth="38620" windowHeight="21100" xr2:uid="{D8F632F1-6A5A-43E3-A743-588D7EAA5943}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="62">
   <si>
     <t>Transaction ID</t>
   </si>
@@ -219,13 +219,16 @@
   </si>
   <si>
     <t>BDE</t>
+  </si>
+  <si>
+    <t>ADE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,8 +236,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -268,6 +278,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,7 +346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -353,10 +369,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -368,7 +387,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -386,10 +411,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -691,8 +712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D908CC35-E2F2-4F8D-9398-28792257468C}">
   <dimension ref="A1:V57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J49" sqref="J49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1046,31 +1067,31 @@
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="11"/>
-      <c r="H15" s="12" t="s">
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="H15" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="11"/>
-      <c r="M15" s="12" t="s">
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="12"/>
+      <c r="M15" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="11"/>
-      <c r="R15" s="8" t="s">
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="12"/>
+      <c r="R15" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C16" s="4" t="s">
@@ -1666,13 +1687,13 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E45" s="6" t="s">
+      <c r="E45" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="F45" s="6">
-        <v>2</v>
-      </c>
-      <c r="G45" s="7">
+      <c r="F45" s="16">
+        <v>2</v>
+      </c>
+      <c r="G45" s="8">
         <f>F45/10</f>
         <v>0.2</v>
       </c>
@@ -1682,33 +1703,32 @@
       <c r="J45" s="3">
         <v>4</v>
       </c>
-      <c r="K45" s="13">
+      <c r="K45" s="8">
         <f t="shared" ref="K45" si="7">J45/10</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E46" s="6" t="s">
+      <c r="E46" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F46" s="6">
-        <v>2</v>
-      </c>
-      <c r="G46" s="7">
-        <f t="shared" ref="G46:G49" si="8">F46/10</f>
+      <c r="F46" s="16">
+        <v>2</v>
+      </c>
+      <c r="G46" s="8">
+        <f t="shared" ref="G46:G50" si="8">F46/10</f>
         <v>0.2</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E47" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F47" s="6">
-        <v>2</v>
-      </c>
-      <c r="G47" s="7">
-        <f t="shared" si="8"/>
-        <v>0.2</v>
+      <c r="E47" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F47" s="14">
+        <v>4</v>
+      </c>
+      <c r="G47" s="15">
+        <v>0.4</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -1717,15 +1737,15 @@
       </c>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
-      <c r="E48" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F48" s="6">
-        <v>1</v>
-      </c>
-      <c r="G48" s="7">
+      <c r="E48" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F48" s="16">
+        <v>2</v>
+      </c>
+      <c r="G48" s="8">
         <f t="shared" si="8"/>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -1738,15 +1758,15 @@
       <c r="C49" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F49" s="3">
-        <v>4</v>
-      </c>
-      <c r="G49" s="13">
+      <c r="E49" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F49" s="6">
+        <v>1</v>
+      </c>
+      <c r="G49" s="7">
         <f t="shared" si="8"/>
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -1760,6 +1780,16 @@
         <f>B50/10</f>
         <v>0.3</v>
       </c>
+      <c r="E50" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F50" s="3">
+        <v>4</v>
+      </c>
+      <c r="G50" s="8">
+        <f t="shared" si="8"/>
+        <v>0.4</v>
+      </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
@@ -1847,17 +1877,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="R15:V15"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="C15:F15"/>
     <mergeCell ref="M15:P15"/>
     <mergeCell ref="H15:K15"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="R15:V15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
